--- a/Container/Wissensskills Muster.xlsx
+++ b/Container/Wissensskills Muster.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Dropbox\Rpg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\Rpg\Container\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A7FDE3-0445-4B61-A8A5-8BA090A4865E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777C6A40-49E5-470F-A110-369AFE6A7962}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0A318B12-A42C-4A04-BCDC-01332B204159}"/>
   </bookViews>
@@ -20,12 +20,20 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="80">
   <si>
     <t>Architektur</t>
   </si>
@@ -81,9 +89,6 @@
     <t>Geographie: Wissen um Städte, routen,</t>
   </si>
   <si>
-    <t>Taktik: Geteilt in Krieg und Schlacht. Schlacht: Vermutlich Taktik der Feinde, beste eigene Formation. Krieg:</t>
-  </si>
-  <si>
     <t>Handel: In 3 Stufen jeweils vertieft: Handelswaren, Handelsrouten, Preise, Händlerwissen</t>
   </si>
   <si>
@@ -102,9 +107,6 @@
     <t>Monster</t>
   </si>
   <si>
-    <t>Jagt</t>
-  </si>
-  <si>
     <t>Territorial Knowledge</t>
   </si>
   <si>
@@ -259,6 +261,30 @@
   </si>
   <si>
     <t>Wundversorgung</t>
+  </si>
+  <si>
+    <t>Taktik: Spezialisierungen Krieg, Schlacht, Guerilla. Vermutlich Taktik der Feinde, beste eigene Formation / Vorgehen.</t>
+  </si>
+  <si>
+    <t>Schwarzmarkt</t>
+  </si>
+  <si>
+    <t>Hoich</t>
+  </si>
+  <si>
+    <t>Spionage</t>
+  </si>
+  <si>
+    <t>Spionage: Erkennen von Möglichkeiten Gebäude besser auszukunftschaften, oder die Gespräche von Zielpersonen besser abzuhören. + gezielte Informationsbeschaffung zu Zielpersonen</t>
+  </si>
+  <si>
+    <t>Jagd</t>
+  </si>
+  <si>
+    <t>Überlebenskünste in der Stadt</t>
+  </si>
+  <si>
+    <t>Schutzmöglichkeiten erkennen, Nahrungsquellen erspähen, Fluchtrouten erkennen</t>
   </si>
 </sst>
 </file>
@@ -632,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE0127B-005C-48F9-AC86-73F5A56B2AC4}">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -645,18 +671,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -678,18 +704,18 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -700,177 +726,170 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>68</v>
-      </c>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="4"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>23</v>
+      <c r="A15" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>43</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>50</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>30</v>
+      <c r="A21" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C24" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>52</v>
+      <c r="A25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="A27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B28" t="s">
         <v>2</v>
@@ -881,235 +900,266 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="E29" s="5"/>
+        <v>74</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="B30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D31" s="5"/>
+      <c r="C31" s="4"/>
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
+      <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
       <c r="E32" s="5"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="5"/>
+        <v>76</v>
+      </c>
       <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="D34" s="5"/>
       <c r="E34" s="5"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" t="s">
-        <v>73</v>
-      </c>
+      <c r="A35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
       <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" t="s">
-        <v>2</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="5"/>
       <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" t="s">
-        <v>55</v>
+        <v>27</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="E37" s="5"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>64</v>
-      </c>
-      <c r="D38" s="5"/>
+        <v>71</v>
+      </c>
       <c r="E38" s="5"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D39" s="5"/>
+      <c r="A39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
       <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>69</v>
-      </c>
-      <c r="B40" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D40" s="5"/>
+      <c r="C40" t="s">
+        <v>53</v>
+      </c>
       <c r="E40" s="5"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>62</v>
+      </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
+      <c r="A42" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" s="5"/>
       <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="E45" s="5"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>7</v>
       </c>
-      <c r="B43" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="3" t="s">
+      <c r="B46" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>8</v>
       </c>
-      <c r="B44" t="s">
-        <v>2</v>
-      </c>
-      <c r="C44" s="5"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="B47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="5"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D46" s="5"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D49" s="5"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="5"/>
-      <c r="D48" s="5"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D49" s="5"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D50" s="5"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
       <c r="D51" s="5"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="3"/>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D52" s="5"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D53" s="5"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="3"/>
+      <c r="D54" s="5"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="3"/>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="3"/>
+      <c r="B57" s="5"/>
       <c r="C57" s="5"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="3"/>
+      <c r="B58" s="5"/>
       <c r="C58" s="5"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="3"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C60" s="5"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C61" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A50:E50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
